--- a/Gastos Mensais.xlsx
+++ b/Gastos Mensais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Off\dev\oneservice\assignments\application\src\Content\OfficeDocumentTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_E991C67FA779053202674ED77FFD90B3FC2762A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0ADBCF5-9182-45F3-BBF1-FB759D604F34}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109786B-1D18-42F4-B4AB-683495415880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Valor</t>
   </si>
@@ -69,17 +58,63 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>IMPORTANTE</t>
+  </si>
+  <si>
+    <t>SUPÉRFLUO</t>
+  </si>
+  <si>
+    <t>ESSENCIAL</t>
+  </si>
+  <si>
+    <t>Despesa</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Gasto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$BRL]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,16 +138,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,147 +501,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>900</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>500</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>150</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>150</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>90</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>80</v>
       </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>600</v>
       </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>500</v>
       </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>300</v>
       </c>
-      <c r="C9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <f>SUM(B2:B9)</f>
         <v>3120</v>
       </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <f>COUNTIF(C:C,A14)</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="6aabd398-59c8-4bab-b000-bcc1fc15ebf4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E649DF15C560B442B7BEDA6212AEF5FC" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5b84e9ab03cc6bc4ca9c4f37a0024e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aabd398-59c8-4bab-b000-bcc1fc15ebf4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="015c640fa676483accdd07a9667ec451" ns2:_="">
     <xsd:import namespace="6aabd398-59c8-4bab-b000-bcc1fc15ebf4"/>
@@ -717,14 +819,55 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="6aabd398-59c8-4bab-b000-bcc1fc15ebf4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9172E92-DE33-474D-A0C7-391053AE09DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1850F287-3F01-4DE3-8AB5-F831434BEE99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6aabd398-59c8-4bab-b000-bcc1fc15ebf4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E6E475-048A-4E77-9703-9CC82127E2A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E6E475-048A-4E77-9703-9CC82127E2A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1850F287-3F01-4DE3-8AB5-F831434BEE99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9172E92-DE33-474D-A0C7-391053AE09DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6aabd398-59c8-4bab-b000-bcc1fc15ebf4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Gastos Mensais.xlsx
+++ b/Gastos Mensais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109786B-1D18-42F4-B4AB-683495415880}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C07014-0A02-4D92-8FDB-EF587AC71780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Valor</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Gasto</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -186,7 +189,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,9 +521,10 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -524,8 +534,11 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -535,8 +548,12 @@
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <f>B2</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,8 +563,12 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D9" si="0">B3</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -557,8 +578,12 @@
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -568,8 +593,12 @@
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -579,8 +608,12 @@
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -590,8 +623,12 @@
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -601,8 +638,12 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -612,13 +653,17 @@
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -628,7 +673,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -639,7 +684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -649,18 +694,24 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <f t="shared" ref="B15:B16" si="1">COUNTIF(C:C,A15)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
   </sheetData>
@@ -670,6 +721,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E649DF15C560B442B7BEDA6212AEF5FC" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5b84e9ab03cc6bc4ca9c4f37a0024e2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aabd398-59c8-4bab-b000-bcc1fc15ebf4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="015c640fa676483accdd07a9667ec451" ns2:_="">
     <xsd:import namespace="6aabd398-59c8-4bab-b000-bcc1fc15ebf4"/>
@@ -819,15 +879,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -837,6 +888,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E6E475-048A-4E77-9703-9CC82127E2A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1850F287-3F01-4DE3-8AB5-F831434BEE99}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -854,14 +913,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7E6E475-048A-4E77-9703-9CC82127E2A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9172E92-DE33-474D-A0C7-391053AE09DF}">
   <ds:schemaRefs>
